--- a/biology/Botanique/Fusaea/Fusaea.xlsx
+++ b/biology/Botanique/Fusaea/Fusaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fusaea est un genre de plantes de la famille des Annonaceae et dont l'espèce type est Fusaea longifolia (Aubl.) Saff.. 
 Le nom Fusaea rend hommage au botaniste Jean Baptiste Christian Fusée-Aublet.
@@ -512,13 +524,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre comporte entre autres les espèces suivantes :
-selon GBIF       (18 février 2023)[3] :
+selon GBIF       (18 février 2023) :
 Fusaea longifolia (Aubl.) Saff.
 Fusaea peruviana R.E.Fr.
-Selon Tropicos                                           (18 février 2023)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 février 2023) (Attention liste brute contenant possiblement des synonymes) :
 Fusaea decurrens R.E. Fr., 1934
 Fusaea longifolia (Aubl.) Saff., 1914
 Fusaea peruviana R.E. Fr., 1937
